--- a/data/egrid2016_summarytables.xlsx
+++ b/data/egrid2016_summarytables.xlsx
@@ -1,3 +1,36 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="13740"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Contents" sheetId="5" r:id="rId1"/>
+    <sheet name="Table 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Table 2" sheetId="2" r:id="rId3"/>
+    <sheet name="Table 3" sheetId="3" r:id="rId4"/>
+    <sheet name="Table 4" sheetId="4" r:id="rId5"/>
+  </sheets>
+  <definedNames>
+    <definedName name="_2014_BA_File">#REF!</definedName>
+    <definedName name="_2014_eGRID_Subregion_File">#REF!</definedName>
+    <definedName name="_2014_gen_file">#REF!</definedName>
+    <definedName name="_2014_NERC_File">#REF!</definedName>
+    <definedName name="_2014_Plant_FINAL">#REF!</definedName>
+    <definedName name="_2014_State_File">#REF!</definedName>
+    <definedName name="_2014_Unit_File">#REF!</definedName>
+    <definedName name="_2014_US_File">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Contents!$B$2:$K$44</definedName>
+    <definedName name="Summary_Table_1">'Table 1'!$B$4:$R$31</definedName>
+    <definedName name="Summary_Table_2">'Table 2'!$B$3:$P$30</definedName>
+    <definedName name="Summary_Table_3">'Table 3'!$B$4:$I$56</definedName>
+    <definedName name="Summary_Table_4">'Table 4'!$B$3:$O$55</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="152">
@@ -2066,6 +2099,5018 @@
 </a:theme>
 </file>
 
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:O45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="51" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:15" s="51" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:15" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76"/>
+    </row>
+    <row r="3" spans="3:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C4" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+    </row>
+    <row r="5" spans="3:15" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+    </row>
+    <row r="6" spans="3:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+    </row>
+    <row r="7" spans="3:15" ht="18" x14ac:dyDescent="0.25">
+      <c r="C7" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+    </row>
+    <row r="8" spans="3:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+    </row>
+    <row r="9" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="58">
+        <v>1</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="58">
+        <v>2</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="58">
+        <v>3</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="58">
+        <v>4</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+    </row>
+    <row r="13" spans="3:15" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="61"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="60"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="62"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+    </row>
+    <row r="36" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="68"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+    </row>
+    <row r="39" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+    </row>
+    <row r="40" spans="2:15" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+    </row>
+    <row r="41" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C41" s="91" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="93"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C42" s="94" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="95"/>
+      <c r="G42" s="95"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+    </row>
+    <row r="43" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J44" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="K44" s="71">
+        <v>43146</v>
+      </c>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C43:K43"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="C41:K41"/>
+    <mergeCell ref="C42:K42"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="D8:K8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C37:L37" r:id="rId1" display="Customer Satisfaction Survey"/>
+    <hyperlink ref="C38:L38" r:id="rId2" display="Email EPA"/>
+    <hyperlink ref="C9" location="'Table 1'!A1" display="'Table 1'!A1"/>
+    <hyperlink ref="C10" location="'Table 2'!A1" display="'Table 2'!A1"/>
+    <hyperlink ref="C11" location="'Table 3'!A1" display="'Table 3'!A1"/>
+    <hyperlink ref="C12" location="'Table 4'!A1" display="'Table 4'!A1"/>
+    <hyperlink ref="C42" r:id="rId3"/>
+    <hyperlink ref="C43" r:id="rId4"/>
+    <hyperlink ref="C42:K42" r:id="rId5" display="Customer Satisfaction Survey"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.05" footer="0.05"/>
+  <pageSetup fitToHeight="0" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:R32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:R1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="11" customWidth="1"/>
+    <col min="5" max="6" width="7.5703125" style="15" customWidth="1"/>
+    <col min="7" max="11" width="7.5703125" style="11" customWidth="1"/>
+    <col min="12" max="13" width="7.5703125" style="15" customWidth="1"/>
+    <col min="14" max="17" width="7.5703125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="19" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="101"/>
+    </row>
+    <row r="2" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="102" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="104" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="114" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="102"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="114"/>
+    </row>
+    <row r="4" spans="2:18" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="102"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="R4" s="114"/>
+    </row>
+    <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1072.28</v>
+      </c>
+      <c r="E5" s="12">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1077.27</v>
+      </c>
+      <c r="H5" s="8">
+        <v>6.5190000000000001</v>
+      </c>
+      <c r="I5" s="8">
+        <v>6.49</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1367.7629999999999</v>
+      </c>
+      <c r="L5" s="12">
+        <v>0.11</v>
+      </c>
+      <c r="M5" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1375</v>
+      </c>
+      <c r="O5" s="8">
+        <v>6.7610000000000001</v>
+      </c>
+      <c r="P5" s="8">
+        <v>6.7080000000000002</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0.747</v>
+      </c>
+      <c r="R5" s="16">
+        <v>5.2528105216304501E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="8">
+        <v>503.125</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G6" s="8">
+        <v>504.85399999999998</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6.9580000000000002</v>
+      </c>
+      <c r="I6" s="8">
+        <v>6.524</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.63</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1533.8050000000001</v>
+      </c>
+      <c r="L6" s="12">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="N6" s="8">
+        <v>1538.913</v>
+      </c>
+      <c r="O6" s="8">
+        <v>21.79</v>
+      </c>
+      <c r="P6" s="8">
+        <v>20.846</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>1.9650000000000001</v>
+      </c>
+      <c r="R6" s="16">
+        <v>5.2528105216304501E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1043.645</v>
+      </c>
+      <c r="E7" s="12">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1049.048</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1384.8230000000001</v>
+      </c>
+      <c r="L7" s="12">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="M7" s="12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="N7" s="8">
+        <v>1391.222</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1.2989999999999999</v>
+      </c>
+      <c r="P7" s="8">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="R7" s="16">
+        <v>4.23472028310466E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8">
+        <v>527.86199999999997</v>
+      </c>
+      <c r="E8" s="12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>529.88900000000001</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="J8" s="8">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K8" s="8">
+        <v>942.94</v>
+      </c>
+      <c r="L8" s="12">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="M8" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="N8" s="8">
+        <v>945.60699999999997</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="R8" s="16">
+        <v>4.23472028310466E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="8">
+        <v>1009.1559999999999</v>
+      </c>
+      <c r="E9" s="12">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1014.076</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1402.8209999999999</v>
+      </c>
+      <c r="L9" s="12">
+        <v>0.108</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1409.751</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.751</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0.745</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="R9" s="16">
+        <v>4.8885154797144198E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1011.683</v>
+      </c>
+      <c r="E10" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1016.353</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0.372</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1188.4849999999999</v>
+      </c>
+      <c r="L10" s="12">
+        <v>7.8E-2</v>
+      </c>
+      <c r="M10" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1193.2660000000001</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="P10" s="8">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>0.434</v>
+      </c>
+      <c r="R10" s="16">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1152.0160000000001</v>
+      </c>
+      <c r="E11" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1158.7080000000001</v>
+      </c>
+      <c r="H11" s="8">
+        <v>7.4450000000000003</v>
+      </c>
+      <c r="I11" s="8">
+        <v>6.9749999999999996</v>
+      </c>
+      <c r="J11" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1529.999</v>
+      </c>
+      <c r="L11" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="M11" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="N11" s="8">
+        <v>1540.2049999999999</v>
+      </c>
+      <c r="O11" s="8">
+        <v>11.82</v>
+      </c>
+      <c r="P11" s="8">
+        <v>11.316000000000001</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>4.5469999999999997</v>
+      </c>
+      <c r="R11" s="16">
+        <v>5.3495907326790097E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1662.8879999999999</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1675.2239999999999</v>
+      </c>
+      <c r="H12" s="8">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3.1960000000000002</v>
+      </c>
+      <c r="J12" s="8">
+        <v>8.6479999999999997</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1637.529</v>
+      </c>
+      <c r="L12" s="12">
+        <v>0.153</v>
+      </c>
+      <c r="M12" s="12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="N12" s="8">
+        <v>1648.3140000000001</v>
+      </c>
+      <c r="O12" s="8">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P12" s="8">
+        <v>4.1559999999999997</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>8.1479999999999997</v>
+      </c>
+      <c r="R12" s="16">
+        <v>5.3495907326790097E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1668.212</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0.156</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1679.2929999999999</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1.046</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1.085</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1.288</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1740.0550000000001</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0.156</v>
+      </c>
+      <c r="M13" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N13" s="8">
+        <v>1750.9359999999999</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="P13" s="8">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>1.329</v>
+      </c>
+      <c r="R13" s="16">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1238.817</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.115</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1247.4259999999999</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1.056</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1821.9670000000001</v>
+      </c>
+      <c r="L14" s="12">
+        <v>0.154</v>
+      </c>
+      <c r="M14" s="12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1833.9860000000001</v>
+      </c>
+      <c r="O14" s="8">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="P14" s="8">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>2.024</v>
+      </c>
+      <c r="R14" s="16">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="8">
+        <v>558.15599999999995</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="F15" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G15" s="8">
+        <v>563.71699999999998</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.372</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0.126</v>
+      </c>
+      <c r="K15" s="8">
+        <v>975.13599999999997</v>
+      </c>
+      <c r="L15" s="12">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="M15" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N15" s="8">
+        <v>980.49199999999996</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="P15" s="8">
+        <v>0.438</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="R15" s="16">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="8">
+        <v>651.19899999999996</v>
+      </c>
+      <c r="E16" s="12">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="F16" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G16" s="8">
+        <v>655.40700000000004</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0.439</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1524.886</v>
+      </c>
+      <c r="L16" s="12">
+        <v>0.124</v>
+      </c>
+      <c r="M16" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="N16" s="8">
+        <v>1533.809</v>
+      </c>
+      <c r="O16" s="8">
+        <v>1.387</v>
+      </c>
+      <c r="P16" s="8">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="R16" s="16">
+        <v>4.23472028310466E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8">
+        <v>635.80999999999995</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F17" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G17" s="8">
+        <v>637.07799999999997</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1061.6759999999999</v>
+      </c>
+      <c r="L17" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="M17" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1062.856</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>2.4E-2</v>
+      </c>
+      <c r="R17" s="16">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1178.3219999999999</v>
+      </c>
+      <c r="E18" s="12">
+        <v>0.126</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1185.992</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0.157</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1338.799</v>
+      </c>
+      <c r="L18" s="12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="M18" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N18" s="8">
+        <v>1340.8989999999999</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0.878</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="R18" s="16">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="8">
+        <v>294.661</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F19" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G19" s="8">
+        <v>295.94200000000001</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.315</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.188</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1018.249</v>
+      </c>
+      <c r="L19" s="12">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="M19" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="N19" s="8">
+        <v>1022.002</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="P19" s="8">
+        <v>0.77</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>0.92</v>
+      </c>
+      <c r="R19" s="16">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="8">
+        <v>758.178</v>
+      </c>
+      <c r="E20" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="F20" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G20" s="8">
+        <v>762.11300000000006</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.59</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1434.424</v>
+      </c>
+      <c r="L20" s="12">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="M20" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N20" s="8">
+        <v>1441.3979999999999</v>
+      </c>
+      <c r="O20" s="8">
+        <v>1.236</v>
+      </c>
+      <c r="P20" s="8">
+        <v>1.115</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="R20" s="16">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1272.0450000000001</v>
+      </c>
+      <c r="E21" s="12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1278.896</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="J21" s="8">
+        <v>1.71</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1806.07</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="M21" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N21" s="8">
+        <v>1816.085</v>
+      </c>
+      <c r="O21" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="P21" s="8">
+        <v>1.2170000000000001</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>2.8090000000000002</v>
+      </c>
+      <c r="R21" s="16">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1243.4390000000001</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0.108</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1251.472</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="J22" s="8">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="K22" s="8">
+        <v>1934.366</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="M22" s="12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="N22" s="8">
+        <v>1946.896</v>
+      </c>
+      <c r="O22" s="8">
+        <v>1.522</v>
+      </c>
+      <c r="P22" s="8">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>2.1850000000000001</v>
+      </c>
+      <c r="R22" s="16">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1367.768</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1376.7750000000001</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1.016</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1.0049999999999999</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1688.279</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="M23" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N23" s="8">
+        <v>1697.877</v>
+      </c>
+      <c r="O23" s="8">
+        <v>1.238</v>
+      </c>
+      <c r="P23" s="8">
+        <v>1.18</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="R23" s="16">
+        <v>4.23472028310466E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1412.35</v>
+      </c>
+      <c r="E24" s="12">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F24" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1422.17</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1990.8219999999999</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="M24" s="12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="N24" s="8">
+        <v>2004.1079999999999</v>
+      </c>
+      <c r="O24" s="8">
+        <v>1.4119999999999999</v>
+      </c>
+      <c r="P24" s="8">
+        <v>1.4910000000000001</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="R24" s="16">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1248.329</v>
+      </c>
+      <c r="E25" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1254.856</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1.66</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1662.548</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0.121</v>
+      </c>
+      <c r="M25" s="12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="N25" s="8">
+        <v>1670.8620000000001</v>
+      </c>
+      <c r="O25" s="8">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="P25" s="8">
+        <v>1.282</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>2.3759999999999999</v>
+      </c>
+      <c r="R25" s="16">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="8">
+        <v>838.88900000000001</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="F26" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G26" s="8">
+        <v>842.15300000000002</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="I26" s="8">
+        <v>0.874</v>
+      </c>
+      <c r="J26" s="8">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1186.02</v>
+      </c>
+      <c r="L26" s="12">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="M26" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="N26" s="8">
+        <v>1190.5999999999999</v>
+      </c>
+      <c r="O26" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="P26" s="8">
+        <v>1.38</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>1.091</v>
+      </c>
+      <c r="R26" s="16">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1612.59</v>
+      </c>
+      <c r="E27" s="12">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F27" s="12">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1622.4639999999999</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1.135</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="J27" s="8">
+        <v>2.4390000000000001</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1955.2149999999999</v>
+      </c>
+      <c r="L27" s="12">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="M27" s="12">
+        <v>3.1E-2</v>
+      </c>
+      <c r="N27" s="8">
+        <v>1966.5409999999999</v>
+      </c>
+      <c r="O27" s="8">
+        <v>1.2829999999999999</v>
+      </c>
+      <c r="P27" s="8">
+        <v>1.2290000000000001</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>3.0960000000000001</v>
+      </c>
+      <c r="R27" s="16">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1089.374</v>
+      </c>
+      <c r="E28" s="12">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F28" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G28" s="8">
+        <v>1095.1189999999999</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.51</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0.371</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1453.5409999999999</v>
+      </c>
+      <c r="L28" s="12">
+        <v>0.115</v>
+      </c>
+      <c r="M28" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N28" s="8">
+        <v>1461.0820000000001</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="P28" s="8">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="R28" s="16">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1185.433</v>
+      </c>
+      <c r="E29" s="12">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1192.6379999999999</v>
+      </c>
+      <c r="H29" s="8">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="J29" s="8">
+        <v>1.004</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1757.366</v>
+      </c>
+      <c r="L29" s="12">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="M29" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N29" s="8">
+        <v>1767.8920000000001</v>
+      </c>
+      <c r="O29" s="8">
+        <v>1.101</v>
+      </c>
+      <c r="P29" s="8">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="R29" s="16">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="9">
+        <v>805.28499999999997</v>
+      </c>
+      <c r="E30" s="13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G30" s="9">
+        <v>810.13099999999997</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="J30" s="9">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="K30" s="9">
+        <v>1422.2329999999999</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0.111</v>
+      </c>
+      <c r="M30" s="13">
+        <v>1.9E-2</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1430.364</v>
+      </c>
+      <c r="O30" s="9">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="P30" s="9">
+        <v>0.76</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>0.628</v>
+      </c>
+      <c r="R30" s="17">
+        <v>4.4874183834912797E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" s="3" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="98"/>
+      <c r="D31" s="10">
+        <v>998.44299999999998</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="F31" s="14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G31" s="10">
+        <v>1004.167</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="J31" s="10">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="K31" s="10">
+        <v>1500.9549999999999</v>
+      </c>
+      <c r="L31" s="14">
+        <v>0.111</v>
+      </c>
+      <c r="M31" s="14">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="N31" s="10">
+        <v>1508.942</v>
+      </c>
+      <c r="O31" s="10">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="P31" s="10">
+        <v>1.0389999999999999</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>1.282</v>
+      </c>
+      <c r="R31" s="18">
+        <v>4.4758609440378197E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="Q32" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="R32" s="128">
+        <v>43146</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="R2:R4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="86" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:P32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="21" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="32" customWidth="1"/>
+    <col min="6" max="11" width="6.7109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="7.5703125" style="11" customWidth="1"/>
+    <col min="13" max="14" width="6.7109375" style="11" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="117" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="101"/>
+    </row>
+    <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="121" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="122" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="118" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="119"/>
+    </row>
+    <row r="3" spans="2:16" ht="45" x14ac:dyDescent="0.2">
+      <c r="B3" s="120"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="L3" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="N3" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="O3" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="P3" s="40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28">
+        <v>2406.1</v>
+      </c>
+      <c r="E4" s="28">
+        <v>4705315.7690000003</v>
+      </c>
+      <c r="F4" s="8">
+        <v>12.6269726022292</v>
+      </c>
+      <c r="G4" s="8">
+        <v>9.1590160396735705</v>
+      </c>
+      <c r="H4" s="8">
+        <v>61.880849382799397</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>12.625953903328799</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0.90354926400689795</v>
+      </c>
+      <c r="M4" s="8">
+        <v>2.8544949285846699</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="28">
+        <v>1033.2</v>
+      </c>
+      <c r="E5" s="28">
+        <v>1629717.7420000001</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>24.566770746448402</v>
+      </c>
+      <c r="H5" s="8">
+        <v>7.9030825914676504</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>65.352482448893298</v>
+      </c>
+      <c r="L5" s="8">
+        <v>3.0789380742704601E-2</v>
+      </c>
+      <c r="M5" s="8">
+        <v>2.1468748324479798</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>0</v>
+      </c>
+      <c r="P5" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="28">
+        <v>63308.3</v>
+      </c>
+      <c r="E6" s="28">
+        <v>166327576.05399999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>29.511032890245701</v>
+      </c>
+      <c r="G6" s="8">
+        <v>6.2796655170884896E-2</v>
+      </c>
+      <c r="H6" s="8">
+        <v>39.847405456704998</v>
+      </c>
+      <c r="I6" s="8">
+        <v>4.4638003267861602E-4</v>
+      </c>
+      <c r="J6" s="8">
+        <v>19.4660144726572</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3.4883862216574699</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.37149331065547198</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1.1664009286991801</v>
+      </c>
+      <c r="N6" s="8">
+        <v>2.8354786299249199</v>
+      </c>
+      <c r="O6" s="8">
+        <v>3.2377348414492899</v>
+      </c>
+      <c r="P6" s="33">
+        <v>1.2810212802217599E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="28">
+        <v>110655.6</v>
+      </c>
+      <c r="E7" s="28">
+        <v>200602485.03099999</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4.3418439453164801</v>
+      </c>
+      <c r="G7" s="8">
+        <v>9.3264072841897097E-2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>48.402788696483903</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.71126520271697802</v>
+      </c>
+      <c r="J7" s="8">
+        <v>9.4253957392818997</v>
+      </c>
+      <c r="K7" s="8">
+        <v>12.109520270988099</v>
+      </c>
+      <c r="L7" s="8">
+        <v>2.8541972271350402</v>
+      </c>
+      <c r="M7" s="8">
+        <v>7.0350126446814496</v>
+      </c>
+      <c r="N7" s="8">
+        <v>10.642475397874501</v>
+      </c>
+      <c r="O7" s="8">
+        <v>4.1435453965429501</v>
+      </c>
+      <c r="P7" s="33">
+        <v>0.240691406136786</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="28">
+        <v>159336.29999999999</v>
+      </c>
+      <c r="E8" s="28">
+        <v>389939061.95899999</v>
+      </c>
+      <c r="F8" s="8">
+        <v>25.903178882614</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4.5683302466585599E-2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>48.192844442679601</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0.471458023697434</v>
+      </c>
+      <c r="J8" s="8">
+        <v>10.7912874423521</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0.30082520967040899</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0.278356559924475</v>
+      </c>
+      <c r="M8" s="8">
+        <v>13.667985650163899</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0.18018251285328099</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="33">
+        <v>0.168197973578322</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="28">
+        <v>97820.3</v>
+      </c>
+      <c r="E9" s="28">
+        <v>229407929.06</v>
+      </c>
+      <c r="F9" s="8">
+        <v>16.037308649209798</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1.22699217281377</v>
+      </c>
+      <c r="H9" s="8">
+        <v>66.575933817968306</v>
+      </c>
+      <c r="I9" s="8">
+        <v>8.3145208163844502E-3</v>
+      </c>
+      <c r="J9" s="8">
+        <v>12.780736108352301</v>
+      </c>
+      <c r="K9" s="8">
+        <v>7.6087605543031303E-2</v>
+      </c>
+      <c r="L9" s="8">
+        <v>2.44778767445306</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0.116417510641491</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="33">
+        <v>0.730421940201886</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="28">
+        <v>1164.0999999999999</v>
+      </c>
+      <c r="E10" s="28">
+        <v>2741703.6669999999</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.201544902991484</v>
+      </c>
+      <c r="G10" s="8">
+        <v>61.677249154237501</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
+        <v>0</v>
+      </c>
+      <c r="K10" s="8">
+        <v>3.3135966161192001</v>
+      </c>
+      <c r="L10" s="8">
+        <v>4.2703317402169603</v>
+      </c>
+      <c r="M10" s="8">
+        <v>14.7978428371866</v>
+      </c>
+      <c r="N10" s="8">
+        <v>2.1364453300441602</v>
+      </c>
+      <c r="O10" s="8">
+        <v>9.4868750018804509</v>
+      </c>
+      <c r="P10" s="33">
+        <v>4.1161144173236304</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="28">
+        <v>2337.6999999999998</v>
+      </c>
+      <c r="E11" s="28">
+        <v>7207141</v>
+      </c>
+      <c r="F11" s="8">
+        <v>20.699659839238599</v>
+      </c>
+      <c r="G11" s="8">
+        <v>68.672285325881603</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0.87940619795647601</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>0</v>
+      </c>
+      <c r="L11" s="8">
+        <v>6.0946351234066301</v>
+      </c>
+      <c r="M11" s="8">
+        <v>3.2386488298306899</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0.41536468368609097</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="28">
+        <v>11271.2</v>
+      </c>
+      <c r="E12" s="28">
+        <v>20471859.537</v>
+      </c>
+      <c r="F12" s="8">
+        <v>64.530099627794598</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.63476397744735902</v>
+      </c>
+      <c r="H12" s="8">
+        <v>20.546861158114499</v>
+      </c>
+      <c r="I12" s="8">
+        <v>8.5043841186413005E-2</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>6.7864459725841098</v>
+      </c>
+      <c r="L12" s="8">
+        <v>5.2576941986322598</v>
+      </c>
+      <c r="M12" s="8">
+        <v>2.0076778685942398</v>
+      </c>
+      <c r="N12" s="8">
+        <v>6.7074022994698702E-3</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="33">
+        <v>0.14470595334709399</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="28">
+        <v>74698.100000000006</v>
+      </c>
+      <c r="E13" s="28">
+        <v>218204106.30399999</v>
+      </c>
+      <c r="F13" s="8">
+        <v>52.713251696105203</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.16249080862325899</v>
+      </c>
+      <c r="H13" s="8">
+        <v>6.6826208041168504</v>
+      </c>
+      <c r="I13" s="8">
+        <v>2.88448047025931E-2</v>
+      </c>
+      <c r="J13" s="8">
+        <v>12.7926429127074</v>
+      </c>
+      <c r="K13" s="8">
+        <v>4.9872900464802497</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1.2878787414810999</v>
+      </c>
+      <c r="M13" s="8">
+        <v>21.1160472697293</v>
+      </c>
+      <c r="N13" s="8">
+        <v>7.4544885324541498E-3</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="33">
+        <v>0.22147842752158101</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="28">
+        <v>44890.400000000001</v>
+      </c>
+      <c r="E14" s="28">
+        <v>107729043.454</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2.36161233222689</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.64347646509122702</v>
+      </c>
+      <c r="H14" s="8">
+        <v>49.783072190842702</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0.138410011446439</v>
+      </c>
+      <c r="J14" s="8">
+        <v>30.401248067770201</v>
+      </c>
+      <c r="K14" s="8">
+        <v>5.2650098307384399</v>
+      </c>
+      <c r="L14" s="8">
+        <v>8.2002812164363004</v>
+      </c>
+      <c r="M14" s="8">
+        <v>2.45616792377422</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.65552943138301101</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="33">
+        <v>9.5192530290621594E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="28">
+        <v>90679.300000000105</v>
+      </c>
+      <c r="E15" s="28">
+        <v>284912897.13999999</v>
+      </c>
+      <c r="F15" s="8">
+        <v>22.468235895959602</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.191948169967503</v>
+      </c>
+      <c r="H15" s="8">
+        <v>15.2707201488143</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0.28867257795780699</v>
+      </c>
+      <c r="J15" s="8">
+        <v>3.3784437868946502</v>
+      </c>
+      <c r="K15" s="8">
+        <v>47.239707647722497</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1.3392201289024099</v>
+      </c>
+      <c r="M15" s="8">
+        <v>8.5920218661699792</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0.45683330685694701</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.65577340746287205</v>
+      </c>
+      <c r="P15" s="33">
+        <v>0.118423063291529</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="28">
+        <v>16614.3</v>
+      </c>
+      <c r="E16" s="28">
+        <v>44416982.223999999</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.44155829979272798</v>
+      </c>
+      <c r="H16" s="8">
+        <v>64.627995763154999</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>34.054922703389003</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0.87208310801802102</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>3.4401256452164701E-3</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="28">
+        <v>6274.7</v>
+      </c>
+      <c r="E17" s="28">
+        <v>11777168.295</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2.7039145160501099</v>
+      </c>
+      <c r="H17" s="8">
+        <v>88.521745791532595</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>7.9703773335508297</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.80396235886649103</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="28">
+        <v>30844.400000000001</v>
+      </c>
+      <c r="E18" s="28">
+        <v>84093338.120000005</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2.1050869190389601</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.190222152700362</v>
+      </c>
+      <c r="H18" s="8">
+        <v>27.7229985185513</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
+        <v>31.446986883122499</v>
+      </c>
+      <c r="K18" s="8">
+        <v>31.637560837769001</v>
+      </c>
+      <c r="L18" s="8">
+        <v>2.1269868012619901</v>
+      </c>
+      <c r="M18" s="8">
+        <v>4.6854841171789898</v>
+      </c>
+      <c r="N18" s="8">
+        <v>5.1608130897941501E-2</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="33">
+        <v>3.30656394789779E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="28">
+        <v>98917.2</v>
+      </c>
+      <c r="E19" s="28">
+        <v>283222517.68199998</v>
+      </c>
+      <c r="F19" s="8">
+        <v>17.617747490997999</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.24882283405424199</v>
+      </c>
+      <c r="H19" s="8">
+        <v>38.023180634318003</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.21028028256119699</v>
+      </c>
+      <c r="J19" s="8">
+        <v>39.6683857020776</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0.91889197743330497</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1.8832437088157401</v>
+      </c>
+      <c r="M19" s="8">
+        <v>1.0126581798829499</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0.39066379544678198</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="33">
+        <v>2.61253944121702E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="28">
+        <v>32930.199999999997</v>
+      </c>
+      <c r="E20" s="28">
+        <v>92326063.429000005</v>
+      </c>
+      <c r="F20" s="8">
+        <v>41.483601603211902</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.87236211107249895</v>
+      </c>
+      <c r="H20" s="8">
+        <v>31.435812654485002</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1.8858747163828</v>
+      </c>
+      <c r="J20" s="8">
+        <v>17.501220867173799</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>2.0041891695580301</v>
+      </c>
+      <c r="M20" s="8">
+        <v>4.8053557308850996</v>
+      </c>
+      <c r="N20" s="8">
+        <v>9.3278180865902192E-3</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="33">
+        <v>2.2553291441721598E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="28">
+        <v>185858.1</v>
+      </c>
+      <c r="E21" s="28">
+        <v>533500666.079</v>
+      </c>
+      <c r="F21" s="8">
+        <v>49.764485177484197</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.38356497148122998</v>
+      </c>
+      <c r="H21" s="8">
+        <v>16.686328279344501</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0.69122969360865905</v>
+      </c>
+      <c r="J21" s="8">
+        <v>27.580265992240399</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0.88412612925577105</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0.62712197174835305</v>
+      </c>
+      <c r="M21" s="8">
+        <v>3.2309071112299499</v>
+      </c>
+      <c r="N21" s="8">
+        <v>7.5689393381364906E-2</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="33">
+        <v>7.6281280225661302E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="28">
+        <v>23338.6</v>
+      </c>
+      <c r="E22" s="28">
+        <v>63912176.715999998</v>
+      </c>
+      <c r="F22" s="8">
+        <v>51.334550454962297</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1.076718764825E-2</v>
+      </c>
+      <c r="H22" s="8">
+        <v>20.244373109099399</v>
+      </c>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <v>12.119208568261399</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0.25395004249761599</v>
+      </c>
+      <c r="M22" s="8">
+        <v>15.111666496412701</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0.84195076341056796</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="33">
+        <v>8.3533377707789194E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="28">
+        <v>28325.7</v>
+      </c>
+      <c r="E23" s="28">
+        <v>66741590.204999998</v>
+      </c>
+      <c r="F23" s="8">
+        <v>57.8632670616498</v>
+      </c>
+      <c r="G23" s="8">
+        <v>9.3158861727133002E-2</v>
+      </c>
+      <c r="H23" s="8">
+        <v>9.4602567897320693</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1.3453667996136299E-2</v>
+      </c>
+      <c r="J23" s="8">
+        <v>12.3551775427227</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0.26783748886551501</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0.12652830023789699</v>
+      </c>
+      <c r="M23" s="8">
+        <v>19.805684735341298</v>
+      </c>
+      <c r="N23" s="8">
+        <v>1.4634053411293899E-2</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="33">
+        <v>1.49831610640871E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="28">
+        <v>61022.2</v>
+      </c>
+      <c r="E24" s="28">
+        <v>156780736.59999999</v>
+      </c>
+      <c r="F24" s="8">
+        <v>34.824108305028503</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1.91567651002297</v>
+      </c>
+      <c r="H24" s="8">
+        <v>40.655990348448597</v>
+      </c>
+      <c r="I24" s="8">
+        <v>0.23113342308482701</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8">
+        <v>3.6153013069937101</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1.4717695208885799</v>
+      </c>
+      <c r="M24" s="8">
+        <v>17.123754948574799</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0.10796798398240701</v>
+      </c>
+      <c r="O24" s="8">
+        <v>0</v>
+      </c>
+      <c r="P24" s="33">
+        <v>5.4297652975549601E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="28">
+        <v>58822.1</v>
+      </c>
+      <c r="E25" s="28">
+        <v>172359088.287</v>
+      </c>
+      <c r="F25" s="8">
+        <v>13.9994570066133</v>
+      </c>
+      <c r="G25" s="8">
+        <v>1.1003939926354001</v>
+      </c>
+      <c r="H25" s="8">
+        <v>58.689688544686497</v>
+      </c>
+      <c r="I25" s="8">
+        <v>1.43905595240628</v>
+      </c>
+      <c r="J25" s="8">
+        <v>21.159383008071998</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1.42497445313546</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1.8196356323302501</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+      <c r="N25" s="8">
+        <v>1.42388776835421E-2</v>
+      </c>
+      <c r="O25" s="8">
+        <v>0</v>
+      </c>
+      <c r="P25" s="33">
+        <v>0.35317253243727897</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="28">
+        <v>38431.800000000003</v>
+      </c>
+      <c r="E26" s="28">
+        <v>121294300.829</v>
+      </c>
+      <c r="F26" s="8">
+        <v>71.374014512431302</v>
+      </c>
+      <c r="G26" s="8">
+        <v>7.9526364995525595E-2</v>
+      </c>
+      <c r="H26" s="8">
+        <v>8.2922705135794406</v>
+      </c>
+      <c r="I26" s="8">
+        <v>2.41314636550315E-3</v>
+      </c>
+      <c r="J26" s="8">
+        <v>15.124067618955999</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1.24584007317431</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0.142195182732687</v>
+      </c>
+      <c r="M26" s="8">
+        <v>3.4899166642194901</v>
+      </c>
+      <c r="N26" s="8">
+        <v>1.3289165241905701E-2</v>
+      </c>
+      <c r="O26" s="8">
+        <v>0</v>
+      </c>
+      <c r="P26" s="33">
+        <v>0.23646675830380701</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="28">
+        <v>87369.9</v>
+      </c>
+      <c r="E27" s="28">
+        <v>264562048.583</v>
+      </c>
+      <c r="F27" s="8">
+        <v>28.9138804384155</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.103093353989686</v>
+      </c>
+      <c r="H27" s="8">
+        <v>47.0189792407581</v>
+      </c>
+      <c r="I27" s="8">
+        <v>4.7746138320883598E-2</v>
+      </c>
+      <c r="J27" s="8">
+        <v>18.206661964072701</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1.9538055491380599</v>
+      </c>
+      <c r="L27" s="8">
+        <v>3.4564360404060199</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0.29810133468030497</v>
+      </c>
+      <c r="O27" s="8">
+        <v>0</v>
+      </c>
+      <c r="P27" s="33">
+        <v>1.29594021862255E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="28">
+        <v>73445.600000000006</v>
+      </c>
+      <c r="E28" s="28">
+        <v>222211053.32499999</v>
+      </c>
+      <c r="F28" s="8">
+        <v>43.692919124800703</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.60281965841292495</v>
+      </c>
+      <c r="H28" s="8">
+        <v>23.370453592353499</v>
+      </c>
+      <c r="I28" s="8">
+        <v>3.0990787835394201E-2</v>
+      </c>
+      <c r="J28" s="8">
+        <v>25.107981008234301</v>
+      </c>
+      <c r="K28" s="8">
+        <v>6.3553058255450203</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0.76781574837083699</v>
+      </c>
+      <c r="M28" s="8">
+        <v>1.6987003787857301E-2</v>
+      </c>
+      <c r="N28" s="8">
+        <v>5.47272506594252E-2</v>
+      </c>
+      <c r="O28" s="8">
+        <v>0</v>
+      </c>
+      <c r="P28" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="29">
+        <v>113211.4</v>
+      </c>
+      <c r="E29" s="29">
+        <v>324246073.99800003</v>
+      </c>
+      <c r="F29" s="9">
+        <v>24.869329793396901</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0.24740200897283299</v>
+      </c>
+      <c r="H29" s="9">
+        <v>29.491682686314299</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0.12594109467817299</v>
+      </c>
+      <c r="J29" s="9">
+        <v>39.582251970349397</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1.48432853516962</v>
+      </c>
+      <c r="L29" s="9">
+        <v>2.8360395432418799</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0.20314571336187201</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1.0699472649269099</v>
+      </c>
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+      <c r="P29" s="34">
+        <v>8.9931389588166502E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" s="3" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="115" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="116"/>
+      <c r="D30" s="30">
+        <v>1515006.8</v>
+      </c>
+      <c r="E30" s="30">
+        <v>4075322641.0890002</v>
+      </c>
+      <c r="F30" s="35">
+        <v>30.403444097075202</v>
+      </c>
+      <c r="G30" s="35">
+        <v>0.59363860415521597</v>
+      </c>
+      <c r="H30" s="35">
+        <v>33.796926758549603</v>
+      </c>
+      <c r="I30" s="35">
+        <v>0.34077875011999098</v>
+      </c>
+      <c r="J30" s="35">
+        <v>19.7683069304823</v>
+      </c>
+      <c r="K30" s="35">
+        <v>6.4069234278107698</v>
+      </c>
+      <c r="L30" s="35">
+        <v>1.71112161020832</v>
+      </c>
+      <c r="M30" s="35">
+        <v>5.56780957737731</v>
+      </c>
+      <c r="N30" s="35">
+        <v>0.88193707278841305</v>
+      </c>
+      <c r="O30" s="35">
+        <v>0.38829807642861303</v>
+      </c>
+      <c r="P30" s="36">
+        <v>0.140815095004277</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="38"/>
+    </row>
+    <row r="32" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="P32" s="128">
+        <v>43146</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="F2:P2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="93" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:I57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="11" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" style="15" customWidth="1"/>
+    <col min="6" max="9" width="13.42578125" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="101"/>
+    </row>
+    <row r="2" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="123" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="124"/>
+    </row>
+    <row r="3" spans="2:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="102"/>
+      <c r="C3" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="123"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="124"/>
+    </row>
+    <row r="4" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="102"/>
+      <c r="C4" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="8">
+        <v>925.86199999999997</v>
+      </c>
+      <c r="D5" s="12">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F5" s="8">
+        <v>930.01300000000003</v>
+      </c>
+      <c r="G5" s="8">
+        <v>6.6319999999999997</v>
+      </c>
+      <c r="H5" s="8">
+        <v>6.4980000000000002</v>
+      </c>
+      <c r="I5" s="33">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="8">
+        <v>912.91700000000003</v>
+      </c>
+      <c r="D6" s="12">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="8">
+        <v>917.46799999999996</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="I6" s="33">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1115.6500000000001</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.105</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1122.5930000000001</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="I7" s="33">
+        <v>1.611</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="8">
+        <v>932.22500000000002</v>
+      </c>
+      <c r="D8" s="12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>937.072</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="I8" s="33">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="8">
+        <v>452.541</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E9" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>454.05900000000003</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="I9" s="33">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1468.373</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E10" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1477.9449999999999</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1.127</v>
+      </c>
+      <c r="I10" s="33">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="8">
+        <v>498.46699999999998</v>
+      </c>
+      <c r="D11" s="12">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E11" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F11" s="8">
+        <v>502.13499999999999</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="I11" s="33">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="8">
+        <v>481.786</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="F12" s="8">
+        <v>483.04199999999997</v>
+      </c>
+      <c r="G12" s="8">
+        <v>4.5780000000000003</v>
+      </c>
+      <c r="H12" s="8">
+        <v>4.5510000000000002</v>
+      </c>
+      <c r="I12" s="33">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="8">
+        <v>887.41499999999996</v>
+      </c>
+      <c r="D13" s="12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F13" s="8">
+        <v>889.33699999999999</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="I13" s="33">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1024.2049999999999</v>
+      </c>
+      <c r="D14" s="12">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1028.9670000000001</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I14" s="33">
+        <v>0.374</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1001.754</v>
+      </c>
+      <c r="D15" s="12">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1007.448</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="I15" s="33">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1522.1020000000001</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.157</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1532.8820000000001</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4.492</v>
+      </c>
+      <c r="H16" s="8">
+        <v>4.2290000000000001</v>
+      </c>
+      <c r="I16" s="33">
+        <v>7.5049999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="8">
+        <v>997.85799999999995</v>
+      </c>
+      <c r="D17" s="12">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1003.87</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="I17" s="33">
+        <v>1.048</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="8">
+        <v>188.69499999999999</v>
+      </c>
+      <c r="D18" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1E-3</v>
+      </c>
+      <c r="F18" s="8">
+        <v>189.273</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.254</v>
+      </c>
+      <c r="I18" s="33">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="8">
+        <v>811.31799999999998</v>
+      </c>
+      <c r="D19" s="12">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F19" s="8">
+        <v>816.04100000000005</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="I19" s="33">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1812.703</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.185</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1824.905</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1.708</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="I20" s="33">
+        <v>1.7330000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1195.5530000000001</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.129</v>
+      </c>
+      <c r="E21" s="12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F21" s="8">
+        <v>1204.056</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0.89</v>
+      </c>
+      <c r="I21" s="33">
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1954.3009999999999</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.189</v>
+      </c>
+      <c r="E22" s="12">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F22" s="8">
+        <v>1968.0840000000001</v>
+      </c>
+      <c r="G22" s="8">
+        <v>1.458</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1.4419999999999999</v>
+      </c>
+      <c r="I22" s="33">
+        <v>1.905</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="8">
+        <v>878.85</v>
+      </c>
+      <c r="D23" s="12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E23" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F23" s="8">
+        <v>882.13400000000001</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.82</v>
+      </c>
+      <c r="H23" s="8">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="I23" s="33">
+        <v>0.72299999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="8">
+        <v>821.327</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F24" s="8">
+        <v>827.51400000000001</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="H24" s="8">
+        <v>0.45</v>
+      </c>
+      <c r="I24" s="33">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1012.682</v>
+      </c>
+      <c r="D25" s="12">
+        <v>7.8E-2</v>
+      </c>
+      <c r="E25" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F25" s="8">
+        <v>1019.454</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.621</v>
+      </c>
+      <c r="H25" s="8">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="I25" s="33">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="8">
+        <v>336.964</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="E26" s="12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F26" s="8">
+        <v>347.62</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="I26" s="33">
+        <v>0.28899999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1099.854</v>
+      </c>
+      <c r="D27" s="12">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1106.0150000000001</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="I27" s="33">
+        <v>1.5389999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="8">
+        <v>1012.67</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.123</v>
+      </c>
+      <c r="E28" s="12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F28" s="8">
+        <v>1020.283</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.67</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="I28" s="33">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1687.742</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0.122</v>
+      </c>
+      <c r="E29" s="12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1698.9549999999999</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1.4570000000000001</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="I29" s="33">
+        <v>2.5449999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="8">
+        <v>940.71600000000001</v>
+      </c>
+      <c r="D30" s="12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E30" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F30" s="8">
+        <v>943.029</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="H30" s="8">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="I30" s="33">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1251.0219999999999</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1260.078</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1.123</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1.147</v>
+      </c>
+      <c r="I31" s="33">
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="8">
+        <v>867.44100000000003</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="E32" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F32" s="8">
+        <v>872.65800000000002</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="H32" s="8">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I32" s="33">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1663.7539999999999</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0.13</v>
+      </c>
+      <c r="E33" s="12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1674.8230000000001</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1.98</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1.899</v>
+      </c>
+      <c r="I33" s="33">
+        <v>2.3940000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="8">
+        <v>1281.153</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E34" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1290.7090000000001</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1.129</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1.1240000000000001</v>
+      </c>
+      <c r="I34" s="33">
+        <v>2.7709999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="8">
+        <v>310.56400000000002</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E35" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F35" s="8">
+        <v>316.79199999999997</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="I35" s="33">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="8">
+        <v>557.822</v>
+      </c>
+      <c r="D36" s="12">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E36" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F36" s="8">
+        <v>559.82399999999996</v>
+      </c>
+      <c r="G36" s="8">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="I36" s="33">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="8">
+        <v>1572.7860000000001</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="E37" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1582.6020000000001</v>
+      </c>
+      <c r="G37" s="8">
+        <v>2.3530000000000002</v>
+      </c>
+      <c r="H37" s="8">
+        <v>2.363</v>
+      </c>
+      <c r="I37" s="33">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="8">
+        <v>769.91200000000003</v>
+      </c>
+      <c r="D38" s="12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E38" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F38" s="8">
+        <v>771.53899999999999</v>
+      </c>
+      <c r="G38" s="8">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="H38" s="8">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="I38" s="33">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="8">
+        <v>464.02</v>
+      </c>
+      <c r="D39" s="12">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E39" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F39" s="8">
+        <v>465.87599999999998</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="I39" s="33">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1465.96</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0.125</v>
+      </c>
+      <c r="E40" s="12">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1475.3340000000001</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="H40" s="8">
+        <v>1.0069999999999999</v>
+      </c>
+      <c r="I40" s="33">
+        <v>1.786</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1043.7159999999999</v>
+      </c>
+      <c r="D41" s="12">
+        <v>6.3E-2</v>
+      </c>
+      <c r="E41" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1048.3109999999999</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0.751</v>
+      </c>
+      <c r="I41" s="33">
+        <v>1.276</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="8">
+        <v>305.89100000000002</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="E42" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F42" s="8">
+        <v>307.16199999999998</v>
+      </c>
+      <c r="G42" s="8">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="H42" s="8">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="I42" s="33">
+        <v>0.13900000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="8">
+        <v>855.44399999999996</v>
+      </c>
+      <c r="D43" s="12">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E43" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F43" s="8">
+        <v>860.04600000000005</v>
+      </c>
+      <c r="G43" s="8">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="H43" s="8">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="I43" s="33">
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="8">
+        <v>870.822</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E44" s="12">
+        <v>2E-3</v>
+      </c>
+      <c r="F44" s="8">
+        <v>871.69</v>
+      </c>
+      <c r="G44" s="8">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="H44" s="8">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="I44" s="33">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="8">
+        <v>629.428</v>
+      </c>
+      <c r="D45" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E45" s="12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F45" s="8">
+        <v>632.80200000000002</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="H45" s="8">
+        <v>0.311</v>
+      </c>
+      <c r="I45" s="33">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="8">
+        <v>513.31600000000003</v>
+      </c>
+      <c r="D46" s="12">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E46" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F46" s="8">
+        <v>516.56200000000001</v>
+      </c>
+      <c r="G46" s="8">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H46" s="8">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="I46" s="33">
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="8">
+        <v>992.27099999999996</v>
+      </c>
+      <c r="D47" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E47" s="12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F47" s="8">
+        <v>998.40700000000004</v>
+      </c>
+      <c r="G47" s="8">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="H47" s="8">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="I47" s="33">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="8">
+        <v>1049.527</v>
+      </c>
+      <c r="D48" s="12">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E48" s="12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="F48" s="8">
+        <v>1054.6020000000001</v>
+      </c>
+      <c r="G48" s="8">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="H48" s="8">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="I48" s="33">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="8">
+        <v>1627.3720000000001</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E49" s="12">
+        <v>2.4E-2</v>
+      </c>
+      <c r="F49" s="8">
+        <v>1638.384</v>
+      </c>
+      <c r="G49" s="8">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="H49" s="8">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="I49" s="33">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="8">
+        <v>813.80200000000002</v>
+      </c>
+      <c r="D50" s="12">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E50" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F50" s="8">
+        <v>818.98</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I50" s="33">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="8">
+        <v>56.89</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0.161</v>
+      </c>
+      <c r="E51" s="12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F51" s="8">
+        <v>66.825000000000003</v>
+      </c>
+      <c r="G51" s="8">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="H51" s="8">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="I51" s="33">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="8">
+        <v>186.84399999999999</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="E52" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F52" s="8">
+        <v>187.93</v>
+      </c>
+      <c r="G52" s="8">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="H52" s="8">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="I52" s="33">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="8">
+        <v>1388.88</v>
+      </c>
+      <c r="D53" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E53" s="12">
+        <v>0.02</v>
+      </c>
+      <c r="F53" s="8">
+        <v>1396.49</v>
+      </c>
+      <c r="G53" s="8">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="I53" s="33">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="8">
+        <v>1975.7570000000001</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E54" s="12">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F54" s="8">
+        <v>1990.559</v>
+      </c>
+      <c r="G54" s="8">
+        <v>1.33</v>
+      </c>
+      <c r="H54" s="8">
+        <v>1.2889999999999999</v>
+      </c>
+      <c r="I54" s="33">
+        <v>1.181</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="9">
+        <v>2026.26</v>
+      </c>
+      <c r="D55" s="13">
+        <v>0.223</v>
+      </c>
+      <c r="E55" s="13">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F55" s="9">
+        <v>2040.9670000000001</v>
+      </c>
+      <c r="G55" s="9">
+        <v>1.58</v>
+      </c>
+      <c r="H55" s="9">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="I55" s="34">
+        <v>1.3939999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" s="3" customFormat="1" ht="13.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="10">
+        <v>998.44299999999998</v>
+      </c>
+      <c r="D56" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="E56" s="14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F56" s="10">
+        <v>1004.167</v>
+      </c>
+      <c r="G56" s="10">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="H56" s="10">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="I56" s="44">
+        <v>0.79800000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="2"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="127" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57" s="128">
+        <v>43146</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="B2:B4"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="92" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
